--- a/wujiang.xlsx
+++ b/wujiang.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="905">
   <si>
     <t>司马懿</t>
   </si>
@@ -2257,6 +2258,489 @@
   </si>
   <si>
     <t>'张星彩(ZhangXingcai)',</t>
+  </si>
+  <si>
+    <t>步骘(BuZhi)</t>
+  </si>
+  <si>
+    <t>郭嘉、凌统、孙尚香</t>
+  </si>
+  <si>
+    <t>曹昂(CaoAng)</t>
+  </si>
+  <si>
+    <t>曹纯(CaoChun)</t>
+  </si>
+  <si>
+    <t>韩浩&amp;史焕</t>
+  </si>
+  <si>
+    <t>曹叡(CaoRui)</t>
+  </si>
+  <si>
+    <t>甘夫人、司马懿、张昭&amp;张纮、诸葛瑾</t>
+  </si>
+  <si>
+    <t>曹植(CaoZhi)</t>
+  </si>
+  <si>
+    <t>岑昏(CenHun)</t>
+  </si>
+  <si>
+    <t>刘表、吕蒙、张郃</t>
+  </si>
+  <si>
+    <t>陈宫(ChenGong)</t>
+  </si>
+  <si>
+    <t>大乔(DaQiao)</t>
+  </si>
+  <si>
+    <t>陆逊、张春华</t>
+  </si>
+  <si>
+    <t>邓艾(DengAi)</t>
+  </si>
+  <si>
+    <t>曹昂、伏皇后、关平、郭嘉、陆逊、司马朗、司马懿、乐进、张角、诸葛瑾</t>
+  </si>
+  <si>
+    <t>董卓(DongZhuo)</t>
+  </si>
+  <si>
+    <t>孟获、孙策、孙坚、王异</t>
+  </si>
+  <si>
+    <t>伏皇后(FuHuanghou)</t>
+  </si>
+  <si>
+    <t>甘夫人(GanFuren)</t>
+  </si>
+  <si>
+    <t>曹叡、沮授、满宠</t>
+  </si>
+  <si>
+    <t>甘宁(GanNing)</t>
+  </si>
+  <si>
+    <t>黄月英、沮授、陆逊、蹋顿</t>
+  </si>
+  <si>
+    <t>顾雍(GuYong)</t>
+  </si>
+  <si>
+    <t>关平(GuanPing)</t>
+  </si>
+  <si>
+    <t>邓艾、陆逊、张春华、张松</t>
+  </si>
+  <si>
+    <t>关兴张苞(GuanXingzhangbao)</t>
+  </si>
+  <si>
+    <t>沮授、陆逊、蹋顿、魏延、张春华、张松</t>
+  </si>
+  <si>
+    <t>关羽(GuanYu)</t>
+  </si>
+  <si>
+    <t>陆逊、孙策、张春华</t>
+  </si>
+  <si>
+    <t>华雄(HuaXiong)</t>
+  </si>
+  <si>
+    <t>华佗(HuaTuo)</t>
+  </si>
+  <si>
+    <t>刘表（主公）、陆逊、张春华、钟会（主公）、钟繇、诸葛瑾</t>
+  </si>
+  <si>
+    <t>韩浩史涣(HanHaoshihuan)</t>
+  </si>
+  <si>
+    <t>曹纯、王基</t>
+  </si>
+  <si>
+    <t>黄盖(HuangGe)</t>
+  </si>
+  <si>
+    <t>沮授、蹋顿、王异、魏延、张松</t>
+  </si>
+  <si>
+    <t>黄月英(HuangYueying)</t>
+  </si>
+  <si>
+    <t>甘宁、沮授、蹋顿、卧龙诸葛亮、张松</t>
+  </si>
+  <si>
+    <t>黄忠(HuangZhong)</t>
+  </si>
+  <si>
+    <t>蹋顿、张星彩</t>
+  </si>
+  <si>
+    <t>郭嘉(GuoJia)</t>
+  </si>
+  <si>
+    <t>步骘、邓艾</t>
+  </si>
+  <si>
+    <t>沮授(JuShou)</t>
+  </si>
+  <si>
+    <t>陈宫、甘夫人、甘宁、关兴&amp;张苞、黄盖、黄月英、王基、卧龙诸葛亮、颜良&amp;文丑、张松、张星彩、钟繇</t>
+  </si>
+  <si>
+    <t>廖化(LiaoHua)</t>
+  </si>
+  <si>
+    <t>凌统(LingTong)</t>
+  </si>
+  <si>
+    <t>刘备(LiuBei)</t>
+  </si>
+  <si>
+    <t>陆逊、张春华、张昭&amp;张纮</t>
+  </si>
+  <si>
+    <t>刘表(LiuBiao)</t>
+  </si>
+  <si>
+    <t>岑昏、华佗（主公）、张郃</t>
+  </si>
+  <si>
+    <t>刘谌(LiuChen)</t>
+  </si>
+  <si>
+    <t>陆逊（主公）、张春华（主公）</t>
+  </si>
+  <si>
+    <t>刘协(LiuXie)</t>
+  </si>
+  <si>
+    <t>张昭&amp;张纮</t>
+  </si>
+  <si>
+    <t>陆逊(LuXun)</t>
+  </si>
+  <si>
+    <t>大乔、邓艾、甘宁、顾雍、关平、关兴&amp;张苞、关羽、华佗、刘备、刘谌（主公）、夏侯惇、卧龙诸葛亮、赵云、钟繇</t>
+  </si>
+  <si>
+    <t>吕蒙(LuMeng)</t>
+  </si>
+  <si>
+    <t>满宠(ManChong)</t>
+  </si>
+  <si>
+    <t>孟获(MengHuo)</t>
+  </si>
+  <si>
+    <t>司马朗(SimaLang)</t>
+  </si>
+  <si>
+    <t>司马懿(SimaYi)</t>
+  </si>
+  <si>
+    <t>曹叡、邓艾</t>
+  </si>
+  <si>
+    <t>孙策(SunCe)</t>
+  </si>
+  <si>
+    <t>董卓、关羽、颜良&amp;文丑</t>
+  </si>
+  <si>
+    <t>孙坚(SunJian)</t>
+  </si>
+  <si>
+    <t>孙尚香(SunShangxiang)</t>
+  </si>
+  <si>
+    <t>步骘、钟繇</t>
+  </si>
+  <si>
+    <t>蹋顿(TaDun)</t>
+  </si>
+  <si>
+    <t>甘宁、关兴&amp;张苞、黄盖、黄月英、黄忠、张飞、张星彩</t>
+  </si>
+  <si>
+    <t>太史慈(TaishiCi)</t>
+  </si>
+  <si>
+    <t>王基(WangJi)</t>
+  </si>
+  <si>
+    <t>韩浩&amp;史涣、沮授</t>
+  </si>
+  <si>
+    <t>王朗(WangLang)</t>
+  </si>
+  <si>
+    <t>（主公单禁）、廖化</t>
+  </si>
+  <si>
+    <t>王异(WangYi)</t>
+  </si>
+  <si>
+    <t>董卓、华雄、黄盖</t>
+  </si>
+  <si>
+    <t>魏延(WeiYan)</t>
+  </si>
+  <si>
+    <t>关兴&amp;张苞、黄盖</t>
+  </si>
+  <si>
+    <t>卧龙诸葛亮(WoLongzhugeliang)</t>
+  </si>
+  <si>
+    <t>黄月英、沮授、陆逊、张春华</t>
+  </si>
+  <si>
+    <t>吴国太(WuGuotai)</t>
+  </si>
+  <si>
+    <t>张春华、钟会（主公）</t>
+  </si>
+  <si>
+    <t>夏侯霸(XiahouBa)</t>
+  </si>
+  <si>
+    <t>夏侯惇(XiahouDun)</t>
+  </si>
+  <si>
+    <t>曹植、陆逊、张春华、张昭&amp;张纮</t>
+  </si>
+  <si>
+    <t>小乔(XiaoQiao)</t>
+  </si>
+  <si>
+    <t>颜良文丑(YanLiangwenchou)</t>
+  </si>
+  <si>
+    <t>沮授、孙策、张春华、张松</t>
+  </si>
+  <si>
+    <t>乐进(LeJin)</t>
+  </si>
+  <si>
+    <t>张春华(ZhangChunhua)</t>
+  </si>
+  <si>
+    <t>大乔、顾雍、华佗、关平、关兴&amp;张苞、刘备、刘谌（主公）、卧龙诸葛亮、吴国太、夏侯霸、夏侯惇、小乔、颜良&amp;文丑、张飞、钟繇、诸葛恪</t>
+  </si>
+  <si>
+    <t>张飞(ZhangFei)</t>
+  </si>
+  <si>
+    <t>蹋顿、张春华</t>
+  </si>
+  <si>
+    <t>张郃(ZhangHe)</t>
+  </si>
+  <si>
+    <t>岑昏、刘表</t>
+  </si>
+  <si>
+    <t>张角(ZhangJue)</t>
+  </si>
+  <si>
+    <t>邓艾、赵云</t>
+  </si>
+  <si>
+    <t>张松(ZhangSong)</t>
+  </si>
+  <si>
+    <t>关平、关兴&amp;张苞、黄盖、黄月英、沮授、颜良&amp;文丑、张星彩</t>
+  </si>
+  <si>
+    <t>张昭张纮(ZhangZhaozhanghong)</t>
+  </si>
+  <si>
+    <t>曹叡、刘备、刘协、夏侯惇</t>
+  </si>
+  <si>
+    <t>张星彩(ZhangXingcai)</t>
+  </si>
+  <si>
+    <t>黄忠、沮授、蹋顿、太史慈、张松</t>
+  </si>
+  <si>
+    <t>赵云(ZhaoYun)</t>
+  </si>
+  <si>
+    <t>陆逊、张角、诸葛瑾</t>
+  </si>
+  <si>
+    <t>钟会(ZhongHui)</t>
+  </si>
+  <si>
+    <t>华佗（主公）、吴国太（主公）</t>
+  </si>
+  <si>
+    <t>钟繇(ZhongYao)</t>
+  </si>
+  <si>
+    <t>沮授、华佗、陆逊、孙尚香、张春华</t>
+  </si>
+  <si>
+    <t>诸葛恪(ZhugeKe)</t>
+  </si>
+  <si>
+    <t>诸葛瑾(ZhugeJin)</t>
+  </si>
+  <si>
+    <t>邓艾、华佗、赵云</t>
+  </si>
+  <si>
+    <t>孙资&amp;刘放</t>
+  </si>
+  <si>
+    <t>SP袁术</t>
+  </si>
+  <si>
+    <t>SP夏侯氏</t>
+  </si>
+  <si>
+    <t>神关羽</t>
+  </si>
+  <si>
+    <t>神赵云</t>
+  </si>
+  <si>
+    <t>神司马懿</t>
+  </si>
+  <si>
+    <t>神曹操</t>
+  </si>
+  <si>
+    <t>神吕布</t>
+  </si>
+  <si>
+    <t>SunZi&amp;liufang</t>
+  </si>
+  <si>
+    <t>SPyuanshu</t>
+  </si>
+  <si>
+    <t>SPxiahoushi</t>
+  </si>
+  <si>
+    <t>ShenGuanyu</t>
+  </si>
+  <si>
+    <t>ShenZhaoyun</t>
+  </si>
+  <si>
+    <t>ShenSimayi</t>
+  </si>
+  <si>
+    <t>ShenCaocao</t>
+  </si>
+  <si>
+    <t>ShenLubu</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>杨修(YangXiu),</t>
+  </si>
+  <si>
+    <t>马云騄(MaYunlu),</t>
+  </si>
+  <si>
+    <t>诸葛果(ZhugeGuo),</t>
+  </si>
+  <si>
+    <t>程昱(ChengYu),</t>
+  </si>
+  <si>
+    <t>士燮(ShiXie),</t>
+  </si>
+  <si>
+    <t>刘虞(LiuYu),</t>
+  </si>
+  <si>
+    <t>李严(LiYan),</t>
+  </si>
+  <si>
+    <t>孙资刘放(SunZiliufang),</t>
+  </si>
+  <si>
+    <t>董白(DongBai),</t>
+  </si>
+  <si>
+    <t>神诸葛亮(ShenZhugeliang),</t>
+  </si>
+  <si>
+    <t>袁绍(YuanShao),</t>
+  </si>
+  <si>
+    <t>蔡文姬(CaiWenji),</t>
+  </si>
+  <si>
+    <t>周泰(ZhouTai),</t>
+  </si>
+  <si>
+    <t>SP袁术(SPyuanshu),</t>
+  </si>
+  <si>
+    <t>灵雎(LingJu),</t>
+  </si>
+  <si>
+    <t>左慈(ZuoCi),</t>
+  </si>
+  <si>
+    <t>于吉(YuJi),</t>
+  </si>
+  <si>
+    <t>曹冲(CaoChong),</t>
+  </si>
+  <si>
+    <t>曹丕(CaoPi),</t>
+  </si>
+  <si>
+    <t>兀突骨(WuTugu),</t>
+  </si>
+  <si>
+    <t>SP夏侯氏(SPxiahoushi),</t>
+  </si>
+  <si>
+    <t>关索(GuanSuo),</t>
+  </si>
+  <si>
+    <t>郭皇后(GuoHuanghou),</t>
+  </si>
+  <si>
+    <t>张让(ZhangRang),</t>
+  </si>
+  <si>
+    <t>留赞(LiuZan),</t>
+  </si>
+  <si>
+    <t>神关羽(ShenGuanyu),</t>
+  </si>
+  <si>
+    <t>神赵云(ShenZhaoyun),</t>
+  </si>
+  <si>
+    <t>神司马懿(ShenSimayi),</t>
+  </si>
+  <si>
+    <t>神曹操(ShenCaocao),</t>
+  </si>
+  <si>
+    <t>神吕布(ShenLubu),</t>
+  </si>
+  <si>
+    <t>此武将因双将、暗将或面杀结算不易而禁用</t>
+  </si>
+  <si>
+    <t>此武将因破坏游戏平衡而被禁用</t>
   </si>
 </sst>
 </file>
@@ -2636,7 +3120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:N249"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L65"/>
     </sheetView>
   </sheetViews>
@@ -6776,10 +7260,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F205"/>
+  <dimension ref="A1:L205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="O190" sqref="O190"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6787,7 +7271,7 @@
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>407</v>
       </c>
@@ -6803,8 +7287,14 @@
       <c r="F1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>744</v>
+      </c>
+      <c r="L1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>407</v>
       </c>
@@ -6820,8 +7310,14 @@
       <c r="F2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>746</v>
+      </c>
+      <c r="L2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>407</v>
       </c>
@@ -6837,8 +7333,14 @@
       <c r="F3" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>747</v>
+      </c>
+      <c r="L3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>407</v>
       </c>
@@ -6854,8 +7356,14 @@
       <c r="F4" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>749</v>
+      </c>
+      <c r="L4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>407</v>
       </c>
@@ -6871,8 +7379,14 @@
       <c r="F5" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>751</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>407</v>
       </c>
@@ -6888,8 +7402,14 @@
       <c r="F6" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>752</v>
+      </c>
+      <c r="L6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>407</v>
       </c>
@@ -6905,8 +7425,14 @@
       <c r="F7" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>754</v>
+      </c>
+      <c r="L7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>407</v>
       </c>
@@ -6922,8 +7448,14 @@
       <c r="F8" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>755</v>
+      </c>
+      <c r="L8" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>407</v>
       </c>
@@ -6939,8 +7471,14 @@
       <c r="F9" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>757</v>
+      </c>
+      <c r="L9" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>407</v>
       </c>
@@ -6956,8 +7494,14 @@
       <c r="F10" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>759</v>
+      </c>
+      <c r="L10" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>407</v>
       </c>
@@ -6973,8 +7517,14 @@
       <c r="F11" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>761</v>
+      </c>
+      <c r="L11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>407</v>
       </c>
@@ -6990,8 +7540,14 @@
       <c r="F12" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>762</v>
+      </c>
+      <c r="L12" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>407</v>
       </c>
@@ -7007,8 +7563,14 @@
       <c r="F13" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>764</v>
+      </c>
+      <c r="L13" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>407</v>
       </c>
@@ -7024,8 +7586,14 @@
       <c r="F14" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>766</v>
+      </c>
+      <c r="L14" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>407</v>
       </c>
@@ -7041,8 +7609,14 @@
       <c r="F15" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>767</v>
+      </c>
+      <c r="L15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>407</v>
       </c>
@@ -7058,8 +7632,14 @@
       <c r="F16" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>769</v>
+      </c>
+      <c r="L16" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>407</v>
       </c>
@@ -7075,8 +7655,14 @@
       <c r="F17" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>771</v>
+      </c>
+      <c r="L17" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>407</v>
       </c>
@@ -7092,8 +7678,14 @@
       <c r="F18" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>773</v>
+      </c>
+      <c r="L18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>407</v>
       </c>
@@ -7109,8 +7701,14 @@
       <c r="F19" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>774</v>
+      </c>
+      <c r="L19" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>407</v>
       </c>
@@ -7126,8 +7724,14 @@
       <c r="F20" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>776</v>
+      </c>
+      <c r="L20" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>407</v>
       </c>
@@ -7143,8 +7747,14 @@
       <c r="F21" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>778</v>
+      </c>
+      <c r="L21" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>407</v>
       </c>
@@ -7160,8 +7770,14 @@
       <c r="F22" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>780</v>
+      </c>
+      <c r="L22" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>407</v>
       </c>
@@ -7177,8 +7793,14 @@
       <c r="F23" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>782</v>
+      </c>
+      <c r="L23" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>407</v>
       </c>
@@ -7194,8 +7816,14 @@
       <c r="F24" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>784</v>
+      </c>
+      <c r="L24" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>407</v>
       </c>
@@ -7211,8 +7839,14 @@
       <c r="F25" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>786</v>
+      </c>
+      <c r="L25" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>407</v>
       </c>
@@ -7228,8 +7862,14 @@
       <c r="F26" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>788</v>
+      </c>
+      <c r="L26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>407</v>
       </c>
@@ -7245,8 +7885,14 @@
       <c r="F27" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>789</v>
+      </c>
+      <c r="L27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>407</v>
       </c>
@@ -7262,8 +7908,14 @@
       <c r="F28" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>790</v>
+      </c>
+      <c r="L28" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>407</v>
       </c>
@@ -7279,8 +7931,14 @@
       <c r="F29" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>792</v>
+      </c>
+      <c r="L29" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>407</v>
       </c>
@@ -7296,8 +7954,14 @@
       <c r="F30" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>794</v>
+      </c>
+      <c r="L30" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>407</v>
       </c>
@@ -7313,8 +7977,14 @@
       <c r="F31" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>796</v>
+      </c>
+      <c r="L31" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>407</v>
       </c>
@@ -7330,8 +8000,14 @@
       <c r="F32" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>798</v>
+      </c>
+      <c r="L32" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>407</v>
       </c>
@@ -7347,8 +8023,14 @@
       <c r="F33" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>800</v>
+      </c>
+      <c r="L33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>407</v>
       </c>
@@ -7364,8 +8046,14 @@
       <c r="F34" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>801</v>
+      </c>
+      <c r="L34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>407</v>
       </c>
@@ -7381,8 +8069,14 @@
       <c r="F35" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>802</v>
+      </c>
+      <c r="L35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>407</v>
       </c>
@@ -7398,8 +8092,14 @@
       <c r="F36" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>803</v>
+      </c>
+      <c r="L36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>407</v>
       </c>
@@ -7415,8 +8115,14 @@
       <c r="F37" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>804</v>
+      </c>
+      <c r="L37" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>407</v>
       </c>
@@ -7432,8 +8138,14 @@
       <c r="F38" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>806</v>
+      </c>
+      <c r="L38" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>407</v>
       </c>
@@ -7449,8 +8161,14 @@
       <c r="F39" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>808</v>
+      </c>
+      <c r="L39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>407</v>
       </c>
@@ -7466,8 +8184,14 @@
       <c r="F40" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>809</v>
+      </c>
+      <c r="L40" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>407</v>
       </c>
@@ -7483,8 +8207,14 @@
       <c r="F41" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>811</v>
+      </c>
+      <c r="L41" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>407</v>
       </c>
@@ -7500,8 +8230,14 @@
       <c r="F42" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>813</v>
+      </c>
+      <c r="L42" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>407</v>
       </c>
@@ -7517,8 +8253,14 @@
       <c r="F43" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>814</v>
+      </c>
+      <c r="L43" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>407</v>
       </c>
@@ -7534,8 +8276,14 @@
       <c r="F44" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>816</v>
+      </c>
+      <c r="L44" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>407</v>
       </c>
@@ -7551,8 +8299,14 @@
       <c r="F45" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>818</v>
+      </c>
+      <c r="L45" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>407</v>
       </c>
@@ -7568,8 +8322,14 @@
       <c r="F46" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>820</v>
+      </c>
+      <c r="L46" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>407</v>
       </c>
@@ -7585,8 +8345,14 @@
       <c r="F47" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>822</v>
+      </c>
+      <c r="L47" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>407</v>
       </c>
@@ -7602,8 +8368,14 @@
       <c r="F48" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>824</v>
+      </c>
+      <c r="L48" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>407</v>
       </c>
@@ -7619,8 +8391,14 @@
       <c r="F49" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>826</v>
+      </c>
+      <c r="L49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>407</v>
       </c>
@@ -7636,8 +8414,14 @@
       <c r="F50" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>827</v>
+      </c>
+      <c r="L50" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>407</v>
       </c>
@@ -7653,8 +8437,14 @@
       <c r="F51" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>829</v>
+      </c>
+      <c r="L51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>407</v>
       </c>
@@ -7670,8 +8460,14 @@
       <c r="F52" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>830</v>
+      </c>
+      <c r="L52" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -7687,8 +8483,14 @@
       <c r="F53" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>832</v>
+      </c>
+      <c r="L53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>407</v>
       </c>
@@ -7704,8 +8506,14 @@
       <c r="F54" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>833</v>
+      </c>
+      <c r="L54" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>407</v>
       </c>
@@ -7721,8 +8529,14 @@
       <c r="F55" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>835</v>
+      </c>
+      <c r="L55" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>407</v>
       </c>
@@ -7738,8 +8552,14 @@
       <c r="F56" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>837</v>
+      </c>
+      <c r="L56" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>407</v>
       </c>
@@ -7755,8 +8575,14 @@
       <c r="F57" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>839</v>
+      </c>
+      <c r="L57" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>407</v>
       </c>
@@ -7772,8 +8598,14 @@
       <c r="F58" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>841</v>
+      </c>
+      <c r="L58" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>407</v>
       </c>
@@ -7789,8 +8621,14 @@
       <c r="F59" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>843</v>
+      </c>
+      <c r="L59" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>407</v>
       </c>
@@ -7806,8 +8644,14 @@
       <c r="F60" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>845</v>
+      </c>
+      <c r="L60" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>407</v>
       </c>
@@ -7823,8 +8667,14 @@
       <c r="F61" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>847</v>
+      </c>
+      <c r="L61" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>407</v>
       </c>
@@ -7840,8 +8690,14 @@
       <c r="F62" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>849</v>
+      </c>
+      <c r="L62" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>407</v>
       </c>
@@ -7857,8 +8713,14 @@
       <c r="F63" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>851</v>
+      </c>
+      <c r="L63" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>407</v>
       </c>
@@ -7874,8 +8736,14 @@
       <c r="F64" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>853</v>
+      </c>
+      <c r="L64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>407</v>
       </c>
@@ -7891,8 +8759,14 @@
       <c r="F65" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>854</v>
+      </c>
+      <c r="L65" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>407</v>
       </c>
@@ -7909,7 +8783,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>407</v>
       </c>
@@ -7926,7 +8800,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>407</v>
       </c>
@@ -7943,7 +8817,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>407</v>
       </c>
@@ -7960,7 +8834,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>407</v>
       </c>
@@ -7977,7 +8851,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>407</v>
       </c>
@@ -7994,7 +8868,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>407</v>
       </c>
@@ -8011,7 +8885,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>407</v>
       </c>
@@ -8028,7 +8902,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>407</v>
       </c>
@@ -8045,7 +8919,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>407</v>
       </c>
@@ -8062,7 +8936,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>407</v>
       </c>
@@ -8079,7 +8953,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>407</v>
       </c>
@@ -8096,7 +8970,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>407</v>
       </c>
@@ -8113,7 +8987,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>407</v>
       </c>
@@ -8130,7 +9004,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>407</v>
       </c>
@@ -10277,5 +11151,622 @@
     <sortCondition ref="C1:C205"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F1" t="s">
+        <v>873</v>
+      </c>
+      <c r="H1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" t="s">
+        <v>874</v>
+      </c>
+      <c r="H2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>872</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" t="s">
+        <v>875</v>
+      </c>
+      <c r="H3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>872</v>
+      </c>
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F4" t="s">
+        <v>876</v>
+      </c>
+      <c r="H4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>872</v>
+      </c>
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" t="s">
+        <v>877</v>
+      </c>
+      <c r="H5" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>872</v>
+      </c>
+      <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F6" t="s">
+        <v>878</v>
+      </c>
+      <c r="H6" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>872</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F7" t="s">
+        <v>879</v>
+      </c>
+      <c r="H7" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>872</v>
+      </c>
+      <c r="B8" t="s">
+        <v>856</v>
+      </c>
+      <c r="D8" t="s">
+        <v>864</v>
+      </c>
+      <c r="E8" t="s">
+        <v>406</v>
+      </c>
+      <c r="F8" t="s">
+        <v>880</v>
+      </c>
+      <c r="H8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>872</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" t="s">
+        <v>881</v>
+      </c>
+      <c r="H9" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>872</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F10" t="s">
+        <v>882</v>
+      </c>
+      <c r="H10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>872</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F11" t="s">
+        <v>883</v>
+      </c>
+      <c r="H11" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>872</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E12" t="s">
+        <v>406</v>
+      </c>
+      <c r="F12" t="s">
+        <v>884</v>
+      </c>
+      <c r="H12" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>872</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" t="s">
+        <v>406</v>
+      </c>
+      <c r="F13" t="s">
+        <v>885</v>
+      </c>
+      <c r="H13" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>872</v>
+      </c>
+      <c r="B14" t="s">
+        <v>857</v>
+      </c>
+      <c r="D14" t="s">
+        <v>865</v>
+      </c>
+      <c r="E14" t="s">
+        <v>406</v>
+      </c>
+      <c r="F14" t="s">
+        <v>886</v>
+      </c>
+      <c r="H14" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>872</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" t="s">
+        <v>322</v>
+      </c>
+      <c r="E15" t="s">
+        <v>406</v>
+      </c>
+      <c r="F15" t="s">
+        <v>887</v>
+      </c>
+      <c r="H15" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>872</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F16" t="s">
+        <v>888</v>
+      </c>
+      <c r="H16" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>872</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" t="s">
+        <v>406</v>
+      </c>
+      <c r="F17" t="s">
+        <v>889</v>
+      </c>
+      <c r="H17" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>872</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" t="s">
+        <v>406</v>
+      </c>
+      <c r="F18" t="s">
+        <v>890</v>
+      </c>
+      <c r="H18" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>872</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E19" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" t="s">
+        <v>891</v>
+      </c>
+      <c r="H19" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>872</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" t="s">
+        <v>406</v>
+      </c>
+      <c r="F20" t="s">
+        <v>892</v>
+      </c>
+      <c r="H20" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>872</v>
+      </c>
+      <c r="B21" t="s">
+        <v>858</v>
+      </c>
+      <c r="D21" t="s">
+        <v>866</v>
+      </c>
+      <c r="E21" t="s">
+        <v>406</v>
+      </c>
+      <c r="F21" t="s">
+        <v>893</v>
+      </c>
+      <c r="H21" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>872</v>
+      </c>
+      <c r="B22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" t="s">
+        <v>406</v>
+      </c>
+      <c r="F22" t="s">
+        <v>894</v>
+      </c>
+      <c r="H22" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>872</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>378</v>
+      </c>
+      <c r="E23" t="s">
+        <v>406</v>
+      </c>
+      <c r="F23" t="s">
+        <v>895</v>
+      </c>
+      <c r="H23" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>872</v>
+      </c>
+      <c r="B24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" t="s">
+        <v>281</v>
+      </c>
+      <c r="E24" t="s">
+        <v>406</v>
+      </c>
+      <c r="F24" t="s">
+        <v>896</v>
+      </c>
+      <c r="H24" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>872</v>
+      </c>
+      <c r="B25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" t="s">
+        <v>331</v>
+      </c>
+      <c r="E25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F25" t="s">
+        <v>897</v>
+      </c>
+      <c r="H25" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>872</v>
+      </c>
+      <c r="B26" t="s">
+        <v>859</v>
+      </c>
+      <c r="D26" t="s">
+        <v>867</v>
+      </c>
+      <c r="E26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F26" t="s">
+        <v>898</v>
+      </c>
+      <c r="H26" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>872</v>
+      </c>
+      <c r="B27" t="s">
+        <v>860</v>
+      </c>
+      <c r="D27" t="s">
+        <v>868</v>
+      </c>
+      <c r="E27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F27" t="s">
+        <v>899</v>
+      </c>
+      <c r="H27" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>872</v>
+      </c>
+      <c r="B28" t="s">
+        <v>861</v>
+      </c>
+      <c r="D28" t="s">
+        <v>869</v>
+      </c>
+      <c r="E28" t="s">
+        <v>406</v>
+      </c>
+      <c r="F28" t="s">
+        <v>900</v>
+      </c>
+      <c r="H28" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>872</v>
+      </c>
+      <c r="B29" t="s">
+        <v>862</v>
+      </c>
+      <c r="D29" t="s">
+        <v>870</v>
+      </c>
+      <c r="E29" t="s">
+        <v>406</v>
+      </c>
+      <c r="F29" t="s">
+        <v>901</v>
+      </c>
+      <c r="H29" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>872</v>
+      </c>
+      <c r="B30" t="s">
+        <v>863</v>
+      </c>
+      <c r="D30" t="s">
+        <v>871</v>
+      </c>
+      <c r="E30" t="s">
+        <v>406</v>
+      </c>
+      <c r="F30" t="s">
+        <v>902</v>
+      </c>
+      <c r="H30" t="s">
+        <v>904</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>